--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1949,10 +1961,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1996,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2042,28 +2054,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2180,10 +2192,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2227,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2273,28 +2285,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2365,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2412,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2458,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2613,10 +2625,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2660,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2706,28 +2718,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2815,10 +2827,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2862,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2908,28 +2920,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3017,10 +3029,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3064,28 +3076,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3110,28 +3122,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3260,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3295,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3353,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3479,10 +3491,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3526,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3572,28 +3584,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3681,10 +3693,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3728,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3774,28 +3786,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3912,10 +3924,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3959,28 +3971,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4005,28 +4017,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4114,10 +4126,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4161,28 +4173,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4207,28 +4219,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4345,10 +4357,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4392,28 +4404,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4438,28 +4450,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4576,10 +4588,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4623,28 +4635,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4669,28 +4681,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4749,10 +4761,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4796,28 +4808,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4842,28 +4854,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4951,10 +4963,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -4998,28 +5010,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5044,28 +5056,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5182,10 +5194,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5229,28 +5241,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5275,28 +5287,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5355,10 +5367,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5402,28 +5414,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5448,28 +5460,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5615,10 +5627,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5662,28 +5674,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5708,28 +5720,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5817,10 +5829,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5864,28 +5876,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5910,28 +5922,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6077,10 +6089,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6124,28 +6136,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6170,28 +6182,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6279,10 +6291,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6326,28 +6338,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6372,28 +6384,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6481,10 +6493,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6528,28 +6540,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6574,28 +6586,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6712,10 +6724,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6759,28 +6771,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6805,28 +6817,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6984,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7019,28 +7031,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7077,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7157,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7192,28 +7204,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7250,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7376,10 +7388,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7423,28 +7435,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7469,28 +7481,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7549,10 +7561,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7596,28 +7608,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7642,28 +7654,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7780,10 +7792,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7827,28 +7839,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7873,28 +7885,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7953,10 +7965,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8000,28 +8012,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8046,28 +8058,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8155,10 +8167,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8202,28 +8214,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8248,28 +8260,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8328,10 +8340,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8375,28 +8387,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8421,28 +8433,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8501,10 +8513,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8548,28 +8560,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8594,28 +8606,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8703,10 +8715,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8750,28 +8762,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8796,28 +8808,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8905,10 +8917,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8952,28 +8964,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8998,28 +9010,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9107,10 +9119,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
